--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_64ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_64ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4127,28 +4127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>10861.38693538757</v>
+        <v>11142.40732720211</v>
       </c>
       <c r="AB2" t="n">
-        <v>14861.02877557155</v>
+        <v>15245.53327339692</v>
       </c>
       <c r="AC2" t="n">
-        <v>13442.71304681532</v>
+        <v>13790.52097502368</v>
       </c>
       <c r="AD2" t="n">
-        <v>10861386.93538757</v>
+        <v>11142407.32720211</v>
       </c>
       <c r="AE2" t="n">
-        <v>14861028.77557155</v>
+        <v>15245533.27339692</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.926041713025156e-07</v>
+        <v>6.637168311144119e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.61024305555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>13442713.04681532</v>
+        <v>13790520.97502368</v>
       </c>
     </row>
     <row r="3">
@@ -4233,28 +4233,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5053.314862806039</v>
+        <v>5230.275753429343</v>
       </c>
       <c r="AB3" t="n">
-        <v>6914.168331809296</v>
+        <v>7156.294029323618</v>
       </c>
       <c r="AC3" t="n">
-        <v>6254.289810317357</v>
+        <v>6473.307371086454</v>
       </c>
       <c r="AD3" t="n">
-        <v>5053314.862806039</v>
+        <v>5230275.753429343</v>
       </c>
       <c r="AE3" t="n">
-        <v>6914168.331809295</v>
+        <v>7156294.029323618</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.228448101686283e-07</v>
+        <v>1.052950054783411e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.52821180555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>6254289.810317356</v>
+        <v>6473307.371086454</v>
       </c>
     </row>
     <row r="4">
@@ -4339,28 +4339,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4060.53082078818</v>
+        <v>4216.49215080173</v>
       </c>
       <c r="AB4" t="n">
-        <v>5555.797406979596</v>
+        <v>5769.190579232422</v>
       </c>
       <c r="AC4" t="n">
-        <v>5025.559900067889</v>
+        <v>5218.587127460095</v>
       </c>
       <c r="AD4" t="n">
-        <v>4060530.82078818</v>
+        <v>4216492.150801729</v>
       </c>
       <c r="AE4" t="n">
-        <v>5555797.406979596</v>
+        <v>5769190.579232423</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.121961043271318e-07</v>
+        <v>1.204002850830139e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.44835069444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>5025559.900067888</v>
+        <v>5218587.127460095</v>
       </c>
     </row>
     <row r="5">
@@ -4445,28 +4445,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3634.202113615363</v>
+        <v>3779.919551624923</v>
       </c>
       <c r="AB5" t="n">
-        <v>4972.475661530576</v>
+        <v>5171.852688814925</v>
       </c>
       <c r="AC5" t="n">
-        <v>4497.909563307333</v>
+        <v>4678.258326935071</v>
       </c>
       <c r="AD5" t="n">
-        <v>3634202.113615363</v>
+        <v>3779919.551624923</v>
       </c>
       <c r="AE5" t="n">
-        <v>4972475.661530576</v>
+        <v>5171852.688814925</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.598127814648922e-07</v>
+        <v>1.284501206090151e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>4497909.563307333</v>
+        <v>4678258.326935071</v>
       </c>
     </row>
     <row r="6">
@@ -4551,28 +4551,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3386.639316187888</v>
+        <v>3522.027610847439</v>
       </c>
       <c r="AB6" t="n">
-        <v>4633.749320390477</v>
+        <v>4818.993558053699</v>
       </c>
       <c r="AC6" t="n">
-        <v>4191.510788760253</v>
+        <v>4359.07557637281</v>
       </c>
       <c r="AD6" t="n">
-        <v>3386639.316187888</v>
+        <v>3522027.610847439</v>
       </c>
       <c r="AE6" t="n">
-        <v>4633749.320390477</v>
+        <v>4818993.558053699</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.894098141171867e-07</v>
+        <v>1.334536458281178e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.66840277777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>4191510.788760253</v>
+        <v>4359075.576372811</v>
       </c>
     </row>
     <row r="7">
@@ -4657,28 +4657,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3208.051971200977</v>
+        <v>3343.354925005957</v>
       </c>
       <c r="AB7" t="n">
-        <v>4389.398236261763</v>
+        <v>4574.525706802789</v>
       </c>
       <c r="AC7" t="n">
-        <v>3970.480229151891</v>
+        <v>4137.93939373251</v>
       </c>
       <c r="AD7" t="n">
-        <v>3208051.971200977</v>
+        <v>3343354.925005957</v>
       </c>
       <c r="AE7" t="n">
-        <v>4389398.236261764</v>
+        <v>4574525.706802788</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.106972697787737e-07</v>
+        <v>1.370523958279772e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.99348958333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>3970480.229151891</v>
+        <v>4137939.39373251</v>
       </c>
     </row>
     <row r="8">
@@ -4763,28 +4763,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3085.184753370408</v>
+        <v>3220.487707175387</v>
       </c>
       <c r="AB8" t="n">
-        <v>4221.285888306879</v>
+        <v>4406.413358847904</v>
       </c>
       <c r="AC8" t="n">
-        <v>3818.412287738665</v>
+        <v>3985.871452319283</v>
       </c>
       <c r="AD8" t="n">
-        <v>3085184.753370408</v>
+        <v>3220487.707175387</v>
       </c>
       <c r="AE8" t="n">
-        <v>4221285.888306879</v>
+        <v>4406413.358847903</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.251690049873088e-07</v>
+        <v>1.394989144682324e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.55512152777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>3818412.287738665</v>
+        <v>3985871.452319284</v>
       </c>
     </row>
     <row r="9">
@@ -4869,28 +4869,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2984.35472974302</v>
+        <v>3109.24328885197</v>
       </c>
       <c r="AB9" t="n">
-        <v>4083.325801673183</v>
+        <v>4254.20383794043</v>
       </c>
       <c r="AC9" t="n">
-        <v>3693.618918145097</v>
+        <v>3848.188594459823</v>
       </c>
       <c r="AD9" t="n">
-        <v>2984354.729743021</v>
+        <v>3109243.28885197</v>
       </c>
       <c r="AE9" t="n">
-        <v>4083325.801673183</v>
+        <v>4254203.83794043</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.362795629861197e-07</v>
+        <v>1.413772094242994e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.22743055555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>3693618.918145097</v>
+        <v>3848188.594459822</v>
       </c>
     </row>
     <row r="10">
@@ -4975,28 +4975,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2879.377131291227</v>
+        <v>3014.594744241635</v>
       </c>
       <c r="AB10" t="n">
-        <v>3939.690820186647</v>
+        <v>4124.701523605473</v>
       </c>
       <c r="AC10" t="n">
-        <v>3563.692257698679</v>
+        <v>3731.045799247358</v>
       </c>
       <c r="AD10" t="n">
-        <v>2879377.131291227</v>
+        <v>3014594.744241634</v>
       </c>
       <c r="AE10" t="n">
-        <v>3939690.820186647</v>
+        <v>4124701.523605473</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.457095323800682e-07</v>
+        <v>1.429713925382722e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.95616319444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>3563692.257698678</v>
+        <v>3731045.799247358</v>
       </c>
     </row>
     <row r="11">
@@ -5081,28 +5081,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2787.258471774717</v>
+        <v>2912.232282229687</v>
       </c>
       <c r="AB11" t="n">
-        <v>3813.650006247715</v>
+        <v>3984.644687167612</v>
       </c>
       <c r="AC11" t="n">
-        <v>3449.680602142689</v>
+        <v>3604.355790708128</v>
       </c>
       <c r="AD11" t="n">
-        <v>2787258.471774717</v>
+        <v>2912232.282229687</v>
       </c>
       <c r="AE11" t="n">
-        <v>3813650.006247715</v>
+        <v>3984644.687167612</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.535522792027583e-07</v>
+        <v>1.442972478013782e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>23.73697916666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>3449680.602142689</v>
+        <v>3604355.790708127</v>
       </c>
     </row>
     <row r="12">
@@ -5187,28 +5187,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2707.667210907909</v>
+        <v>2832.641021362878</v>
       </c>
       <c r="AB12" t="n">
-        <v>3704.749731811128</v>
+        <v>3875.744412731025</v>
       </c>
       <c r="AC12" t="n">
-        <v>3351.173617055839</v>
+        <v>3505.848805621277</v>
       </c>
       <c r="AD12" t="n">
-        <v>2707667.210907909</v>
+        <v>2832641.021362878</v>
       </c>
       <c r="AE12" t="n">
-        <v>3704749.731811128</v>
+        <v>3875744.412731024</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.593409732861723e-07</v>
+        <v>1.452758552574803e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>23.57638888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>3351173.617055839</v>
+        <v>3505848.805621277</v>
       </c>
     </row>
     <row r="13">
@@ -5293,28 +5293,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2656.606036728802</v>
+        <v>2781.40925498318</v>
       </c>
       <c r="AB13" t="n">
-        <v>3634.88558063925</v>
+        <v>3805.6468497843</v>
       </c>
       <c r="AC13" t="n">
-        <v>3287.977202416856</v>
+        <v>3442.441255699643</v>
       </c>
       <c r="AD13" t="n">
-        <v>2656606.036728802</v>
+        <v>2781409.25498318</v>
       </c>
       <c r="AE13" t="n">
-        <v>3634885.58063925</v>
+        <v>3805646.8497843</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.636358108319311e-07</v>
+        <v>1.460019188539432e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>23.45920138888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>3287977.202416856</v>
+        <v>3442441.255699642</v>
       </c>
     </row>
     <row r="14">
@@ -5399,28 +5399,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2647.355544618172</v>
+        <v>2772.15876287255</v>
       </c>
       <c r="AB14" t="n">
-        <v>3622.228649230577</v>
+        <v>3792.989918375627</v>
       </c>
       <c r="AC14" t="n">
-        <v>3276.528230777712</v>
+        <v>3430.992284060499</v>
       </c>
       <c r="AD14" t="n">
-        <v>2647355.544618172</v>
+        <v>2772158.76287255</v>
       </c>
       <c r="AE14" t="n">
-        <v>3622228.649230577</v>
+        <v>3792989.918375628</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.645694711679655e-07</v>
+        <v>1.461597587662177e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>24</v>
+        <v>23.43532986111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>3276528.230777713</v>
+        <v>3430992.284060499</v>
       </c>
     </row>
     <row r="15">
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2660.31945096874</v>
+        <v>2785.122669223118</v>
       </c>
       <c r="AB15" t="n">
-        <v>3639.966437826607</v>
+        <v>3810.727706971657</v>
       </c>
       <c r="AC15" t="n">
-        <v>3292.57314972528</v>
+        <v>3447.037203008066</v>
       </c>
       <c r="AD15" t="n">
-        <v>2660319.45096874</v>
+        <v>2785122.669223118</v>
       </c>
       <c r="AE15" t="n">
-        <v>3639966.437826607</v>
+        <v>3810727.706971657</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.643827391007586e-07</v>
+        <v>1.461281907837628e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>24</v>
+        <v>23.43967013888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>3292573.14972528</v>
+        <v>3447037.203008066</v>
       </c>
     </row>
   </sheetData>
@@ -5802,28 +5802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7457.869491214917</v>
+        <v>7679.691391579248</v>
       </c>
       <c r="AB2" t="n">
-        <v>10204.18605586186</v>
+        <v>10507.69256603193</v>
       </c>
       <c r="AC2" t="n">
-        <v>9230.312860355098</v>
+        <v>9504.853135168587</v>
       </c>
       <c r="AD2" t="n">
-        <v>7457869.491214917</v>
+        <v>7679691.391579248</v>
       </c>
       <c r="AE2" t="n">
-        <v>10204186.05586186</v>
+        <v>10507692.56603193</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.825429340525388e-07</v>
+        <v>8.356635139166946e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.43315972222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>9230312.860355098</v>
+        <v>9504853.135168588</v>
       </c>
     </row>
     <row r="3">
@@ -5908,28 +5908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4028.84620307841</v>
+        <v>4180.119469390292</v>
       </c>
       <c r="AB3" t="n">
-        <v>5512.445115202406</v>
+        <v>5719.423871875836</v>
       </c>
       <c r="AC3" t="n">
-        <v>4986.34509017259</v>
+        <v>5173.57008480561</v>
       </c>
       <c r="AD3" t="n">
-        <v>4028846.20307841</v>
+        <v>4180119.469390292</v>
       </c>
       <c r="AE3" t="n">
-        <v>5512445.115202405</v>
+        <v>5719423.871875837</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.965771898292454e-07</v>
+        <v>1.206326113364132e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.09114583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>4986345.09017259</v>
+        <v>5173570.084805611</v>
       </c>
     </row>
     <row r="4">
@@ -6014,28 +6014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3332.427402382815</v>
+        <v>3473.610011342285</v>
       </c>
       <c r="AB4" t="n">
-        <v>4559.574188261529</v>
+        <v>4752.746462377007</v>
       </c>
       <c r="AC4" t="n">
-        <v>4124.414827136243</v>
+        <v>4299.151010529122</v>
       </c>
       <c r="AD4" t="n">
-        <v>3332427.402382815</v>
+        <v>3473610.011342285</v>
       </c>
       <c r="AE4" t="n">
-        <v>4559574.188261529</v>
+        <v>4752746.462377006</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.765502781790258e-07</v>
+        <v>1.344822788608933e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.9921875</v>
       </c>
       <c r="AH4" t="n">
-        <v>4124414.827136243</v>
+        <v>4299151.010529121</v>
       </c>
     </row>
     <row r="5">
@@ -6120,28 +6120,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3016.81010734595</v>
+        <v>3147.987489316132</v>
       </c>
       <c r="AB5" t="n">
-        <v>4127.73268113972</v>
+        <v>4307.21536228899</v>
       </c>
       <c r="AC5" t="n">
-        <v>3733.787667360793</v>
+        <v>3896.140773326694</v>
       </c>
       <c r="AD5" t="n">
-        <v>3016810.10734595</v>
+        <v>3147987.489316132</v>
       </c>
       <c r="AE5" t="n">
-        <v>4127732.68113972</v>
+        <v>4307215.36228899</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.186617111748039e-07</v>
+        <v>1.417750989583248e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.60329861111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>3733787.667360793</v>
+        <v>3896140.773326694</v>
       </c>
     </row>
     <row r="6">
@@ -6226,28 +6226,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2813.120697992447</v>
+        <v>2944.212739108058</v>
       </c>
       <c r="AB6" t="n">
-        <v>3849.035845119711</v>
+        <v>4028.401759146784</v>
       </c>
       <c r="AC6" t="n">
-        <v>3481.689266217078</v>
+        <v>3643.936749151041</v>
       </c>
       <c r="AD6" t="n">
-        <v>2813120.697992447</v>
+        <v>2944212.739108058</v>
       </c>
       <c r="AE6" t="n">
-        <v>3849035.845119711</v>
+        <v>4028401.759146784</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.451262355804075e-07</v>
+        <v>1.463582014966189e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.80034722222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>3481689.266217078</v>
+        <v>3643936.749151041</v>
       </c>
     </row>
     <row r="7">
@@ -6332,28 +6332,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2668.470740895725</v>
+        <v>2789.472303676026</v>
       </c>
       <c r="AB7" t="n">
-        <v>3651.119392314241</v>
+        <v>3816.679068722456</v>
       </c>
       <c r="AC7" t="n">
-        <v>3302.661681889883</v>
+        <v>3452.420575146157</v>
       </c>
       <c r="AD7" t="n">
-        <v>2668470.740895725</v>
+        <v>2789472.303676026</v>
       </c>
       <c r="AE7" t="n">
-        <v>3651119.392314241</v>
+        <v>3816679.068722456</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.633809622689442e-07</v>
+        <v>1.495195386489459e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.27734375</v>
       </c>
       <c r="AH7" t="n">
-        <v>3302661.681889883</v>
+        <v>3452420.575146157</v>
       </c>
     </row>
     <row r="8">
@@ -6438,28 +6438,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2538.228070813684</v>
+        <v>2669.234771074723</v>
       </c>
       <c r="AB8" t="n">
-        <v>3472.915625206905</v>
+        <v>3652.164772111779</v>
       </c>
       <c r="AC8" t="n">
-        <v>3141.465432204719</v>
+        <v>3303.607292106744</v>
       </c>
       <c r="AD8" t="n">
-        <v>2538228.070813684</v>
+        <v>2669234.771074723</v>
       </c>
       <c r="AE8" t="n">
-        <v>3472915.625206904</v>
+        <v>3652164.772111779</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.760337093387766e-07</v>
+        <v>1.517107300084952e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.92795138888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>3141465.43220472</v>
+        <v>3303607.292106744</v>
       </c>
     </row>
     <row r="9">
@@ -6544,28 +6544,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2436.485105966245</v>
+        <v>2557.571920092567</v>
       </c>
       <c r="AB9" t="n">
-        <v>3333.70641211981</v>
+        <v>3499.382733180675</v>
       </c>
       <c r="AC9" t="n">
-        <v>3015.542151033305</v>
+        <v>3165.406556540292</v>
       </c>
       <c r="AD9" t="n">
-        <v>2436485.105966245</v>
+        <v>2557571.920092567</v>
       </c>
       <c r="AE9" t="n">
-        <v>3333706.41211981</v>
+        <v>3499382.733180675</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.855957090327721e-07</v>
+        <v>1.53366668516857e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.66753472222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>3015542.151033305</v>
+        <v>3165406.556540292</v>
       </c>
     </row>
     <row r="10">
@@ -6650,28 +6650,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2390.482294266367</v>
+        <v>2511.569108392689</v>
       </c>
       <c r="AB10" t="n">
-        <v>3270.763335651215</v>
+        <v>3436.43965671208</v>
       </c>
       <c r="AC10" t="n">
-        <v>2958.606273441712</v>
+        <v>3108.4706789487</v>
       </c>
       <c r="AD10" t="n">
-        <v>2390482.294266367</v>
+        <v>2511569.108392689</v>
       </c>
       <c r="AE10" t="n">
-        <v>3270763.335651215</v>
+        <v>3436439.65671208</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.895557291080632e-07</v>
+        <v>1.540524612324411e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.56336805555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>2958606.273441712</v>
+        <v>3108470.678948699</v>
       </c>
     </row>
     <row r="11">
@@ -6756,28 +6756,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2401.368790054306</v>
+        <v>2522.455604180628</v>
       </c>
       <c r="AB11" t="n">
-        <v>3285.658719466573</v>
+        <v>3451.335040527437</v>
       </c>
       <c r="AC11" t="n">
-        <v>2972.080062731534</v>
+        <v>3121.94446823852</v>
       </c>
       <c r="AD11" t="n">
-        <v>2401368.790054306</v>
+        <v>2522455.604180628</v>
       </c>
       <c r="AE11" t="n">
-        <v>3285658.719466573</v>
+        <v>3451335.040527437</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.894591432525682e-07</v>
+        <v>1.540357345808415e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>23.56553819444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>2972080.062731534</v>
+        <v>3121944.46823852</v>
       </c>
     </row>
   </sheetData>
@@ -7053,28 +7053,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2859.720852383416</v>
+        <v>3005.310769131699</v>
       </c>
       <c r="AB2" t="n">
-        <v>3912.796232211155</v>
+        <v>4111.998779279983</v>
       </c>
       <c r="AC2" t="n">
-        <v>3539.364451452778</v>
+        <v>3719.555387011879</v>
       </c>
       <c r="AD2" t="n">
-        <v>2859720.852383416</v>
+        <v>3005310.769131699</v>
       </c>
       <c r="AE2" t="n">
-        <v>3912796.232211155</v>
+        <v>4111998.779279983</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.701654689926354e-07</v>
+        <v>1.457318799025343e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.36675347222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>3539364.451452778</v>
+        <v>3719555.387011879</v>
       </c>
     </row>
     <row r="3">
@@ -7159,28 +7159,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1987.45794250149</v>
+        <v>2105.787103266198</v>
       </c>
       <c r="AB3" t="n">
-        <v>2719.327637386786</v>
+        <v>2881.2308154592</v>
       </c>
       <c r="AC3" t="n">
-        <v>2459.798824274899</v>
+        <v>2606.250190264621</v>
       </c>
       <c r="AD3" t="n">
-        <v>1987457.94250149</v>
+        <v>2105787.103266198</v>
       </c>
       <c r="AE3" t="n">
-        <v>2719327.637386786</v>
+        <v>2881230.8154592</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.227759229659872e-07</v>
+        <v>1.746090618143714e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.34722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>2459798.824274899</v>
+        <v>2606250.190264621</v>
       </c>
     </row>
     <row r="4">
@@ -7265,28 +7265,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1806.479566579713</v>
+        <v>1924.723386489849</v>
       </c>
       <c r="AB4" t="n">
-        <v>2471.705039248161</v>
+        <v>2633.491450198378</v>
       </c>
       <c r="AC4" t="n">
-        <v>2235.808979362127</v>
+        <v>2382.154722319909</v>
       </c>
       <c r="AD4" t="n">
-        <v>1806479.566579713</v>
+        <v>1924723.386489849</v>
       </c>
       <c r="AE4" t="n">
-        <v>2471705.039248161</v>
+        <v>2633491.450198377</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.552164220097574e-07</v>
+        <v>1.807475023196419e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.48567708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2235808.979362126</v>
+        <v>2382154.722319908</v>
       </c>
     </row>
     <row r="5">
@@ -7371,28 +7371,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1818.591632621485</v>
+        <v>1936.835452531621</v>
       </c>
       <c r="AB5" t="n">
-        <v>2488.277302353155</v>
+        <v>2650.063713303372</v>
       </c>
       <c r="AC5" t="n">
-        <v>2250.799608935697</v>
+        <v>2397.145351893479</v>
       </c>
       <c r="AD5" t="n">
-        <v>1818591.632621485</v>
+        <v>1936835.452531621</v>
       </c>
       <c r="AE5" t="n">
-        <v>2488277.302353155</v>
+        <v>2650063.713303371</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.557553007314149e-07</v>
+        <v>1.808494697698956e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.47048611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>2250799.608935697</v>
+        <v>2397145.351893479</v>
       </c>
     </row>
   </sheetData>
@@ -7668,28 +7668,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4114.966152658488</v>
+        <v>4276.323624554999</v>
       </c>
       <c r="AB2" t="n">
-        <v>5630.278229561905</v>
+        <v>5851.05464119998</v>
       </c>
       <c r="AC2" t="n">
-        <v>5092.93237747743</v>
+        <v>5292.638198250399</v>
       </c>
       <c r="AD2" t="n">
-        <v>4114966.152658488</v>
+        <v>4276323.624554999</v>
       </c>
       <c r="AE2" t="n">
-        <v>5630278.229561905</v>
+        <v>5851054.64119998</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.542052516703994e-07</v>
+        <v>1.191819891661813e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.20138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>5092932.37747743</v>
+        <v>5292638.198250399</v>
       </c>
     </row>
     <row r="3">
@@ -7774,28 +7774,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2666.598221004394</v>
+        <v>2799.465711055438</v>
       </c>
       <c r="AB3" t="n">
-        <v>3648.557327989175</v>
+        <v>3830.352489576985</v>
       </c>
       <c r="AC3" t="n">
-        <v>3300.344137388122</v>
+        <v>3464.789023905097</v>
       </c>
       <c r="AD3" t="n">
-        <v>2666598.221004394</v>
+        <v>2799465.711055438</v>
       </c>
       <c r="AE3" t="n">
-        <v>3648557.327989175</v>
+        <v>3830352.489576985</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.319593657570452e-07</v>
+        <v>1.515649283817048e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.89453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>3300344.137388122</v>
+        <v>3464789.023905097</v>
       </c>
     </row>
     <row r="4">
@@ -7880,28 +7880,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2274.953075977377</v>
+        <v>2398.323935249448</v>
       </c>
       <c r="AB4" t="n">
-        <v>3112.691162398814</v>
+        <v>3281.492614793052</v>
       </c>
       <c r="AC4" t="n">
-        <v>2815.620286548838</v>
+        <v>2968.31156524089</v>
       </c>
       <c r="AD4" t="n">
-        <v>2274953.075977378</v>
+        <v>2398323.935249448</v>
       </c>
       <c r="AE4" t="n">
-        <v>3112691.162398814</v>
+        <v>3281492.614793052</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.953693310489752e-07</v>
+        <v>1.631168469533678e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.99131944444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>2815620.286548838</v>
+        <v>2968311.56524089</v>
       </c>
     </row>
     <row r="5">
@@ -7986,28 +7986,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2063.083620262396</v>
+        <v>2176.957938264045</v>
       </c>
       <c r="AB5" t="n">
-        <v>2822.802026068691</v>
+        <v>2978.609891738897</v>
       </c>
       <c r="AC5" t="n">
-        <v>2553.397762528221</v>
+        <v>2694.335544176575</v>
       </c>
       <c r="AD5" t="n">
-        <v>2063083.620262396</v>
+        <v>2176957.938264045</v>
       </c>
       <c r="AE5" t="n">
-        <v>2822802.026068691</v>
+        <v>2978609.891738897</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.276413946853561e-07</v>
+        <v>1.689961160800841e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.12109375</v>
       </c>
       <c r="AH5" t="n">
-        <v>2553397.762528221</v>
+        <v>2694335.544176575</v>
       </c>
     </row>
     <row r="6">
@@ -8092,28 +8092,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2013.461414452727</v>
+        <v>2136.746932870225</v>
       </c>
       <c r="AB6" t="n">
-        <v>2754.906734902685</v>
+        <v>2923.591420174715</v>
       </c>
       <c r="AC6" t="n">
-        <v>2491.982302659458</v>
+        <v>2644.56795831957</v>
       </c>
       <c r="AD6" t="n">
-        <v>2013461.414452726</v>
+        <v>2136746.932870225</v>
       </c>
       <c r="AE6" t="n">
-        <v>2754906.734902685</v>
+        <v>2923591.420174715</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.335184158587542e-07</v>
+        <v>1.700667817037991e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.96918402777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>2491982.302659458</v>
+        <v>2644567.958319569</v>
       </c>
     </row>
     <row r="7">
@@ -8198,28 +8198,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2025.557118186641</v>
+        <v>2148.84263660414</v>
       </c>
       <c r="AB7" t="n">
-        <v>2771.456610376214</v>
+        <v>2940.141295648245</v>
       </c>
       <c r="AC7" t="n">
-        <v>2506.952681245691</v>
+        <v>2659.538336905802</v>
       </c>
       <c r="AD7" t="n">
-        <v>2025557.118186641</v>
+        <v>2148842.63660414</v>
       </c>
       <c r="AE7" t="n">
-        <v>2771456.610376215</v>
+        <v>2940141.295648246</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.334153102241333e-07</v>
+        <v>1.700479980963655e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.97352430555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>2506952.681245691</v>
+        <v>2659538.336905802</v>
       </c>
     </row>
   </sheetData>
@@ -8495,28 +8495,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2076.993925869699</v>
+        <v>2208.862993666568</v>
       </c>
       <c r="AB2" t="n">
-        <v>2841.834719879974</v>
+        <v>3022.263796092506</v>
       </c>
       <c r="AC2" t="n">
-        <v>2570.614002754709</v>
+        <v>2733.823181167202</v>
       </c>
       <c r="AD2" t="n">
-        <v>2076993.925869699</v>
+        <v>2208862.993666568</v>
       </c>
       <c r="AE2" t="n">
-        <v>2841834.719879974</v>
+        <v>3022263.796092506</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.709598468474881e-07</v>
+        <v>1.706800676151101e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.88845486111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>2570614.002754709</v>
+        <v>2733823.181167202</v>
       </c>
     </row>
     <row r="3">
@@ -8601,28 +8601,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1652.672083590123</v>
+        <v>1766.935940961406</v>
       </c>
       <c r="AB3" t="n">
-        <v>2261.258855514552</v>
+        <v>2417.599706135555</v>
       </c>
       <c r="AC3" t="n">
-        <v>2045.447484040979</v>
+        <v>2186.867383304475</v>
       </c>
       <c r="AD3" t="n">
-        <v>1652672.083590123</v>
+        <v>1766935.940961406</v>
       </c>
       <c r="AE3" t="n">
-        <v>2261258.855514552</v>
+        <v>2417599.706135555</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.650964913917288e-07</v>
+        <v>1.891278168586916e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.17144097222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>2045447.484040979</v>
+        <v>2186867.383304475</v>
       </c>
     </row>
     <row r="4">
@@ -8707,28 +8707,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1668.599860422379</v>
+        <v>1782.863717793662</v>
       </c>
       <c r="AB4" t="n">
-        <v>2283.051942460366</v>
+        <v>2439.392793081369</v>
       </c>
       <c r="AC4" t="n">
-        <v>2065.160669355474</v>
+        <v>2206.580568618971</v>
       </c>
       <c r="AD4" t="n">
-        <v>1668599.860422379</v>
+        <v>1782863.717793662</v>
       </c>
       <c r="AE4" t="n">
-        <v>2283051.942460366</v>
+        <v>2439392.793081369</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.649845572127224e-07</v>
+        <v>1.891058813661308e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.17144097222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>2065160.669355474</v>
+        <v>2206580.56861897</v>
       </c>
     </row>
   </sheetData>
@@ -9004,28 +9004,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8202.756299929619</v>
+        <v>8436.626956999395</v>
       </c>
       <c r="AB2" t="n">
-        <v>11223.37304963208</v>
+        <v>11543.36520028018</v>
       </c>
       <c r="AC2" t="n">
-        <v>10152.23007787778</v>
+        <v>10441.68262677982</v>
       </c>
       <c r="AD2" t="n">
-        <v>8202756.299929618</v>
+        <v>8436626.956999395</v>
       </c>
       <c r="AE2" t="n">
-        <v>11223373.04963208</v>
+        <v>11543365.20028018</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.583946115394052e-07</v>
+        <v>7.886593146762305e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.31467013888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>10152230.07787778</v>
+        <v>10441682.62677982</v>
       </c>
     </row>
     <row r="3">
@@ -9110,28 +9110,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4270.143322920634</v>
+        <v>4432.869285906321</v>
       </c>
       <c r="AB3" t="n">
-        <v>5842.598479848177</v>
+        <v>6065.247321368028</v>
       </c>
       <c r="AC3" t="n">
-        <v>5284.989081069715</v>
+        <v>5486.388629644513</v>
       </c>
       <c r="AD3" t="n">
-        <v>4270143.322920634</v>
+        <v>4432869.285906321</v>
       </c>
       <c r="AE3" t="n">
-        <v>5842598.479848177</v>
+        <v>6065247.321368027</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.769193344762319e-07</v>
+        <v>1.164626993817144e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.68576388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>5284989.081069715</v>
+        <v>5486388.629644513</v>
       </c>
     </row>
     <row r="4">
@@ -9216,28 +9216,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3514.434664831555</v>
+        <v>3656.723963491188</v>
       </c>
       <c r="AB4" t="n">
-        <v>4808.604554337629</v>
+        <v>5003.291050124572</v>
       </c>
       <c r="AC4" t="n">
-        <v>4349.678084590343</v>
+        <v>4525.783974463587</v>
       </c>
       <c r="AD4" t="n">
-        <v>3514434.664831555</v>
+        <v>3656723.963491187</v>
       </c>
       <c r="AE4" t="n">
-        <v>4808604.554337629</v>
+        <v>5003291.050124573</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.59619886652061e-07</v>
+        <v>1.306911739668107e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.34592013888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>4349678.084590343</v>
+        <v>4525783.974463587</v>
       </c>
     </row>
     <row r="5">
@@ -9322,28 +9322,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3170.230561195634</v>
+        <v>3312.519770346716</v>
       </c>
       <c r="AB5" t="n">
-        <v>4337.649314529602</v>
+        <v>4532.335687846998</v>
       </c>
       <c r="AC5" t="n">
-        <v>3923.670151879781</v>
+        <v>4099.775930971798</v>
       </c>
       <c r="AD5" t="n">
-        <v>3170230.561195634</v>
+        <v>3312519.770346716</v>
       </c>
       <c r="AE5" t="n">
-        <v>4337649.314529601</v>
+        <v>4532335.687846998</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.028845273736753e-07</v>
+        <v>1.381347740969768e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.87022569444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>3923670.151879781</v>
+        <v>4099775.930971798</v>
       </c>
     </row>
     <row r="6">
@@ -9428,28 +9428,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2970.391759891731</v>
+        <v>3092.500327280475</v>
       </c>
       <c r="AB6" t="n">
-        <v>4064.221050319892</v>
+        <v>4231.295379270977</v>
       </c>
       <c r="AC6" t="n">
-        <v>3676.337497447279</v>
+        <v>3827.466486933558</v>
       </c>
       <c r="AD6" t="n">
-        <v>2970391.759891731</v>
+        <v>3092500.327280475</v>
       </c>
       <c r="AE6" t="n">
-        <v>4064221.050319892</v>
+        <v>4231295.379270976</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.298770687088419e-07</v>
+        <v>1.427787901073903e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.03038194444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>3676337.497447278</v>
+        <v>3827466.486933558</v>
       </c>
     </row>
     <row r="7">
@@ -9534,28 +9534,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2808.121134908763</v>
+        <v>2940.149386223809</v>
       </c>
       <c r="AB7" t="n">
-        <v>3842.195222343458</v>
+        <v>4022.842100468077</v>
       </c>
       <c r="AC7" t="n">
-        <v>3475.501502877717</v>
+        <v>3638.9076964936</v>
       </c>
       <c r="AD7" t="n">
-        <v>2808121.134908763</v>
+        <v>2940149.386223809</v>
       </c>
       <c r="AE7" t="n">
-        <v>3842195.222343458</v>
+        <v>4022842.100468077</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.491164332775244e-07</v>
+        <v>1.460888866254509e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.46397569444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>3475501.502877717</v>
+        <v>3638907.6964936</v>
       </c>
     </row>
     <row r="8">
@@ -9640,28 +9640,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2689.17334091728</v>
+        <v>2811.196567451452</v>
       </c>
       <c r="AB8" t="n">
-        <v>3679.445602997987</v>
+        <v>3846.403164826874</v>
       </c>
       <c r="AC8" t="n">
-        <v>3328.284478782058</v>
+        <v>3479.307845236399</v>
       </c>
       <c r="AD8" t="n">
-        <v>2689173.34091728</v>
+        <v>2811196.567451452</v>
       </c>
       <c r="AE8" t="n">
-        <v>3679445.602997988</v>
+        <v>3846403.164826874</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.624212674817377e-07</v>
+        <v>1.483779583468958e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.08420138888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>3328284.478782058</v>
+        <v>3479307.845236399</v>
       </c>
     </row>
     <row r="9">
@@ -9746,28 +9746,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2568.024504841384</v>
+        <v>2700.138007502449</v>
       </c>
       <c r="AB9" t="n">
-        <v>3513.6844207695</v>
+        <v>3694.447943546768</v>
       </c>
       <c r="AC9" t="n">
-        <v>3178.343311138183</v>
+        <v>3341.85501700478</v>
       </c>
       <c r="AD9" t="n">
-        <v>2568024.504841384</v>
+        <v>2700138.00750245</v>
       </c>
       <c r="AE9" t="n">
-        <v>3513684.4207695</v>
+        <v>3694447.943546768</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.732374276621412e-07</v>
+        <v>1.502388583794373e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.78689236111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>3178343.311138183</v>
+        <v>3341855.01700478</v>
       </c>
     </row>
     <row r="10">
@@ -9852,28 +9852,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2484.652448278018</v>
+        <v>2606.760926158211</v>
       </c>
       <c r="AB10" t="n">
-        <v>3399.611094863948</v>
+        <v>3566.685301345484</v>
       </c>
       <c r="AC10" t="n">
-        <v>3075.156983354144</v>
+        <v>3226.285862059196</v>
       </c>
       <c r="AD10" t="n">
-        <v>2484652.448278018</v>
+        <v>2606760.926158211</v>
       </c>
       <c r="AE10" t="n">
-        <v>3399611.094863948</v>
+        <v>3566685.301345484</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.804162950385152e-07</v>
+        <v>1.514739690205047e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.59375</v>
       </c>
       <c r="AH10" t="n">
-        <v>3075156.983354144</v>
+        <v>3226285.862059196</v>
       </c>
     </row>
     <row r="11">
@@ -9958,28 +9958,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2456.017910184876</v>
+        <v>2578.126388065069</v>
       </c>
       <c r="AB11" t="n">
-        <v>3360.432056578246</v>
+        <v>3527.506263059782</v>
       </c>
       <c r="AC11" t="n">
-        <v>3039.717137494305</v>
+        <v>3190.846016199357</v>
       </c>
       <c r="AD11" t="n">
-        <v>2456017.910184876</v>
+        <v>2578126.388065069</v>
       </c>
       <c r="AE11" t="n">
-        <v>3360432.056578246</v>
+        <v>3527506.263059782</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.828092508306399e-07</v>
+        <v>1.518856725675271e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>23.53081597222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>3039717.137494305</v>
+        <v>3190846.016199357</v>
       </c>
     </row>
     <row r="12">
@@ -10064,28 +10064,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2468.826629804013</v>
+        <v>2590.935107684206</v>
       </c>
       <c r="AB12" t="n">
-        <v>3377.957511841978</v>
+        <v>3545.031718323514</v>
       </c>
       <c r="AC12" t="n">
-        <v>3055.569987904797</v>
+        <v>3206.698866609849</v>
       </c>
       <c r="AD12" t="n">
-        <v>2468826.629804012</v>
+        <v>2590935.107684206</v>
       </c>
       <c r="AE12" t="n">
-        <v>3377957.511841977</v>
+        <v>3545031.718323514</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.82713532598955e-07</v>
+        <v>1.518692044256462e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>23.53081597222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>3055569.987904796</v>
+        <v>3206698.866609849</v>
       </c>
     </row>
   </sheetData>
@@ -10361,28 +10361,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1678.86885022083</v>
+        <v>1799.428166127156</v>
       </c>
       <c r="AB2" t="n">
-        <v>2297.102427338462</v>
+        <v>2462.057002063141</v>
       </c>
       <c r="AC2" t="n">
-        <v>2077.870195676785</v>
+        <v>2227.081737304939</v>
       </c>
       <c r="AD2" t="n">
-        <v>1678868.85022083</v>
+        <v>1799428.166127156</v>
       </c>
       <c r="AE2" t="n">
-        <v>2297102.427338462</v>
+        <v>2462057.002063141</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.34510340917679e-07</v>
+        <v>1.873375851966358e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.59939236111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>2077870.195676785</v>
+        <v>2227081.737304939</v>
       </c>
     </row>
     <row r="3">
@@ -10467,28 +10467,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1568.422648033105</v>
+        <v>1688.896623084859</v>
       </c>
       <c r="AB3" t="n">
-        <v>2145.985060962663</v>
+        <v>2310.822868565144</v>
       </c>
       <c r="AC3" t="n">
-        <v>1941.175258653336</v>
+        <v>2090.281177249552</v>
       </c>
       <c r="AD3" t="n">
-        <v>1568422.648033105</v>
+        <v>1688896.623084859</v>
       </c>
       <c r="AE3" t="n">
-        <v>2145985.060962663</v>
+        <v>2310822.868565144</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.644082569485093e-07</v>
+        <v>1.933311019576461e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.77690972222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1941175.258653336</v>
+        <v>2090281.177249552</v>
       </c>
     </row>
   </sheetData>
@@ -10764,28 +10764,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5599.365601946826</v>
+        <v>5795.394703777962</v>
       </c>
       <c r="AB2" t="n">
-        <v>7661.299043160181</v>
+        <v>7929.514708479172</v>
       </c>
       <c r="AC2" t="n">
-        <v>6930.115415181425</v>
+        <v>7172.732953845411</v>
       </c>
       <c r="AD2" t="n">
-        <v>5599365.601946826</v>
+        <v>5795394.703777961</v>
       </c>
       <c r="AE2" t="n">
-        <v>7661299.043160181</v>
+        <v>7929514.708479172</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.61255352863377e-07</v>
+        <v>9.940249350663484e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.47873263888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>6930115.415181425</v>
+        <v>7172732.953845411</v>
       </c>
     </row>
     <row r="3">
@@ -10870,28 +10870,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3332.665309825917</v>
+        <v>3479.623152935477</v>
       </c>
       <c r="AB3" t="n">
-        <v>4559.899703720917</v>
+        <v>4760.973907985897</v>
       </c>
       <c r="AC3" t="n">
-        <v>4124.70927585705</v>
+        <v>4306.593240276392</v>
       </c>
       <c r="AD3" t="n">
-        <v>3332665.309825917</v>
+        <v>3479623.152935477</v>
       </c>
       <c r="AE3" t="n">
-        <v>4559899.703720917</v>
+        <v>4760973.907985898</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.591874267721108e-07</v>
+        <v>1.344577345677513e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.44618055555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>4124709.27585705</v>
+        <v>4306593.240276392</v>
       </c>
     </row>
     <row r="4">
@@ -10976,28 +10976,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2807.616162895272</v>
+        <v>2944.845005606539</v>
       </c>
       <c r="AB4" t="n">
-        <v>3841.504297356807</v>
+        <v>4029.266854063635</v>
       </c>
       <c r="AC4" t="n">
-        <v>3474.876518802072</v>
+        <v>3644.719280623196</v>
       </c>
       <c r="AD4" t="n">
-        <v>2807616.162895272</v>
+        <v>2944845.005606539</v>
       </c>
       <c r="AE4" t="n">
-        <v>3841504.297356807</v>
+        <v>4029266.854063635</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.316331531700785e-07</v>
+        <v>1.472884110345652e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.96788194444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>3474876.518802071</v>
+        <v>3644719.280623197</v>
       </c>
     </row>
     <row r="5">
@@ -11082,28 +11082,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2553.387329913213</v>
+        <v>2680.887261734736</v>
       </c>
       <c r="AB5" t="n">
-        <v>3493.657192286192</v>
+        <v>3668.108223904415</v>
       </c>
       <c r="AC5" t="n">
-        <v>3160.227453232932</v>
+        <v>3318.029123237066</v>
       </c>
       <c r="AD5" t="n">
-        <v>2553387.329913213</v>
+        <v>2680887.261734736</v>
       </c>
       <c r="AE5" t="n">
-        <v>3493657.192286192</v>
+        <v>3668108.223904415</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.686521232525566e-07</v>
+        <v>1.538447457126624e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.86328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>3160227.453232931</v>
+        <v>3318029.123237066</v>
       </c>
     </row>
     <row r="6">
@@ -11188,28 +11188,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2373.144702678878</v>
+        <v>2490.830472264637</v>
       </c>
       <c r="AB6" t="n">
-        <v>3247.041277960653</v>
+        <v>3408.064139837624</v>
       </c>
       <c r="AC6" t="n">
-        <v>2937.148215643022</v>
+        <v>3082.803281579455</v>
       </c>
       <c r="AD6" t="n">
-        <v>2373144.702678878</v>
+        <v>2490830.472264637</v>
       </c>
       <c r="AE6" t="n">
-        <v>3247041.277960653</v>
+        <v>3408064.139837624</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.92634843117818e-07</v>
+        <v>1.580922636089565e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.19270833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2937148.215643022</v>
+        <v>3082803.281579454</v>
       </c>
     </row>
     <row r="7">
@@ -11294,28 +11294,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2234.596208229217</v>
+        <v>2362.010799196168</v>
       </c>
       <c r="AB7" t="n">
-        <v>3057.473115526427</v>
+        <v>3231.807380022453</v>
       </c>
       <c r="AC7" t="n">
-        <v>2765.672172570938</v>
+        <v>2923.368219543134</v>
       </c>
       <c r="AD7" t="n">
-        <v>2234596.208229217</v>
+        <v>2362010.799196168</v>
       </c>
       <c r="AE7" t="n">
-        <v>3057473.115526427</v>
+        <v>3231807.380022453</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.074623338228965e-07</v>
+        <v>1.607183223913126e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.79774305555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>2765672.172570938</v>
+        <v>2923368.219543134</v>
       </c>
     </row>
     <row r="8">
@@ -11400,28 +11400,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2207.783873875347</v>
+        <v>2325.554894807127</v>
       </c>
       <c r="AB8" t="n">
-        <v>3020.787296786752</v>
+        <v>3181.926803316373</v>
       </c>
       <c r="AC8" t="n">
-        <v>2732.48759688291</v>
+        <v>2878.248175070054</v>
       </c>
       <c r="AD8" t="n">
-        <v>2207783.873875347</v>
+        <v>2325554.894807127</v>
       </c>
       <c r="AE8" t="n">
-        <v>3020787.296786752</v>
+        <v>3181926.803316372</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.105472479964363e-07</v>
+        <v>1.612646836144874e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.71744791666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2732487.59688291</v>
+        <v>2878248.175070054</v>
       </c>
     </row>
     <row r="9">
@@ -11506,28 +11506,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2215.720215457209</v>
+        <v>2333.491236388989</v>
       </c>
       <c r="AB9" t="n">
-        <v>3031.646149465736</v>
+        <v>3192.785655995357</v>
       </c>
       <c r="AC9" t="n">
-        <v>2742.310095902707</v>
+        <v>2888.070674089852</v>
       </c>
       <c r="AD9" t="n">
-        <v>2215720.215457209</v>
+        <v>2333491.236388989</v>
       </c>
       <c r="AE9" t="n">
-        <v>3031646.149465736</v>
+        <v>3192785.655995357</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.110448147986201e-07</v>
+        <v>1.613528063924188e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.70442708333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2742310.095902707</v>
+        <v>2888070.674089852</v>
       </c>
     </row>
   </sheetData>
@@ -11803,28 +11803,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6792.251630576874</v>
+        <v>7012.129166131896</v>
       </c>
       <c r="AB2" t="n">
-        <v>9293.458333949304</v>
+        <v>9594.304478407958</v>
       </c>
       <c r="AC2" t="n">
-        <v>8406.503714007526</v>
+        <v>8678.637524679247</v>
       </c>
       <c r="AD2" t="n">
-        <v>6792251.630576874</v>
+        <v>7012129.166131896</v>
       </c>
       <c r="AE2" t="n">
-        <v>9293458.333949303</v>
+        <v>9594304.478407957</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.072119962511438e-07</v>
+        <v>8.845334321140412e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.71440972222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>8406503.714007525</v>
+        <v>8678637.524679247</v>
       </c>
     </row>
     <row r="3">
@@ -11909,28 +11909,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3782.590003893573</v>
+        <v>3932.622879300958</v>
       </c>
       <c r="AB3" t="n">
-        <v>5175.50651942093</v>
+        <v>5380.788118536645</v>
       </c>
       <c r="AC3" t="n">
-        <v>4681.563441076224</v>
+        <v>4867.253252486858</v>
       </c>
       <c r="AD3" t="n">
-        <v>3782590.003893573</v>
+        <v>3932622.879300958</v>
       </c>
       <c r="AE3" t="n">
-        <v>5175506.51942093</v>
+        <v>5380788.118536645</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.171365306472824e-07</v>
+        <v>1.250623489657588e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.50520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>4681563.441076224</v>
+        <v>4867253.252486859</v>
       </c>
     </row>
     <row r="4">
@@ -12015,28 +12015,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3159.404477193647</v>
+        <v>3299.349820052635</v>
       </c>
       <c r="AB4" t="n">
-        <v>4322.836588784965</v>
+        <v>4514.315980837434</v>
       </c>
       <c r="AC4" t="n">
-        <v>3910.271131890422</v>
+        <v>4083.47599950841</v>
       </c>
       <c r="AD4" t="n">
-        <v>3159404.477193647</v>
+        <v>3299349.820052635</v>
       </c>
       <c r="AE4" t="n">
-        <v>4322836.588784965</v>
+        <v>4514315.980837434</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.940666085100567e-07</v>
+        <v>1.384782827977077e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.64713541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3910271.131890422</v>
+        <v>4083475.999508411</v>
       </c>
     </row>
     <row r="5">
@@ -12121,28 +12121,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2865.578119798604</v>
+        <v>2995.436019617746</v>
       </c>
       <c r="AB5" t="n">
-        <v>3920.810403893017</v>
+        <v>4098.487711351789</v>
       </c>
       <c r="AC5" t="n">
-        <v>3546.613761837282</v>
+        <v>3707.33379644385</v>
       </c>
       <c r="AD5" t="n">
-        <v>2865578.119798604</v>
+        <v>2995436.019617746</v>
       </c>
       <c r="AE5" t="n">
-        <v>3920810.403893017</v>
+        <v>4098487.711351789</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.346279676873877e-07</v>
+        <v>1.455518296596731e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.3515625</v>
       </c>
       <c r="AH5" t="n">
-        <v>3546613.761837282</v>
+        <v>3707333.79644385</v>
       </c>
     </row>
     <row r="6">
@@ -12227,28 +12227,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2675.922436447038</v>
+        <v>2805.865587612201</v>
       </c>
       <c r="AB6" t="n">
-        <v>3661.315130913154</v>
+        <v>3839.109083024575</v>
       </c>
       <c r="AC6" t="n">
-        <v>3311.884353506725</v>
+        <v>3472.709900364005</v>
       </c>
       <c r="AD6" t="n">
-        <v>2675922.436447038</v>
+        <v>2805865.587612201</v>
       </c>
       <c r="AE6" t="n">
-        <v>3661315.130913155</v>
+        <v>3839109.083024575</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.595888041042069e-07</v>
+        <v>1.499047815747287e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.61588541666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>3311884.353506725</v>
+        <v>3472709.900364005</v>
       </c>
     </row>
     <row r="7">
@@ -12333,28 +12333,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2527.768949476407</v>
+        <v>2647.709998456295</v>
       </c>
       <c r="AB7" t="n">
-        <v>3458.604993969373</v>
+        <v>3622.713628609295</v>
       </c>
       <c r="AC7" t="n">
-        <v>3128.520587527402</v>
+        <v>3276.966924405198</v>
       </c>
       <c r="AD7" t="n">
-        <v>2527768.949476407</v>
+        <v>2647709.998456295</v>
       </c>
       <c r="AE7" t="n">
-        <v>3458604.993969373</v>
+        <v>3622713.628609295</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.775294052787956e-07</v>
+        <v>1.53033465763675e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.11241319444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>3128520.587527402</v>
+        <v>3276966.924405199</v>
       </c>
     </row>
     <row r="8">
@@ -12439,28 +12439,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2397.522317488403</v>
+        <v>2527.380127798993</v>
       </c>
       <c r="AB8" t="n">
-        <v>3280.39580600751</v>
+        <v>3458.072990996733</v>
       </c>
       <c r="AC8" t="n">
-        <v>2967.319434346459</v>
+        <v>3128.0393581718</v>
       </c>
       <c r="AD8" t="n">
-        <v>2397522.317488403</v>
+        <v>2527380.127798993</v>
       </c>
       <c r="AE8" t="n">
-        <v>3280395.80600751</v>
+        <v>3458072.990996733</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.903023332889646e-07</v>
+        <v>1.552609528764573e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.76736111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>2967319.434346459</v>
+        <v>3128039.3581718</v>
       </c>
     </row>
     <row r="9">
@@ -12545,28 +12545,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2335.627963529461</v>
+        <v>2455.654263855369</v>
       </c>
       <c r="AB9" t="n">
-        <v>3195.709220334699</v>
+        <v>3359.934499627271</v>
       </c>
       <c r="AC9" t="n">
-        <v>2890.715217551895</v>
+        <v>3039.267066680404</v>
       </c>
       <c r="AD9" t="n">
-        <v>2335627.963529461</v>
+        <v>2455654.263855369</v>
       </c>
       <c r="AE9" t="n">
-        <v>3195709.220334699</v>
+        <v>3359934.499627271</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.956650129878906e-07</v>
+        <v>1.561961573894576e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.62413194444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>2890715.217551895</v>
+        <v>3039267.066680404</v>
       </c>
     </row>
     <row r="10">
@@ -12651,28 +12651,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2335.124795539944</v>
+        <v>2455.151095865852</v>
       </c>
       <c r="AB10" t="n">
-        <v>3195.020763693237</v>
+        <v>3359.246042985808</v>
       </c>
       <c r="AC10" t="n">
-        <v>2890.09246624604</v>
+        <v>3038.644315374549</v>
       </c>
       <c r="AD10" t="n">
-        <v>2335124.795539944</v>
+        <v>2455151.095865852</v>
       </c>
       <c r="AE10" t="n">
-        <v>3195020.763693237</v>
+        <v>3359246.042985809</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.966400456604225e-07</v>
+        <v>1.563661945736394e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.59809027777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>2890092.46624604</v>
+        <v>3038644.315374549</v>
       </c>
     </row>
   </sheetData>
@@ -12948,28 +12948,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9877.332055205632</v>
+        <v>10135.59709610127</v>
       </c>
       <c r="AB2" t="n">
-        <v>13514.6014750692</v>
+        <v>13867.9710978721</v>
       </c>
       <c r="AC2" t="n">
-        <v>12224.78687815038</v>
+        <v>12544.43140011034</v>
       </c>
       <c r="AD2" t="n">
-        <v>9877332.055205632</v>
+        <v>10135597.09610127</v>
       </c>
       <c r="AE2" t="n">
-        <v>13514601.4750692</v>
+        <v>13867971.0978721</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.139063573007965e-07</v>
+        <v>7.036133751968448e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.34461805555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>12224786.87815038</v>
+        <v>12544431.40011035</v>
       </c>
     </row>
     <row r="3">
@@ -13054,28 +13054,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4777.505841583888</v>
+        <v>4953.071390380184</v>
       </c>
       <c r="AB3" t="n">
-        <v>6536.794261137873</v>
+        <v>6777.010790406349</v>
       </c>
       <c r="AC3" t="n">
-        <v>5912.931791302993</v>
+        <v>6130.222392164093</v>
       </c>
       <c r="AD3" t="n">
-        <v>4777505.841583887</v>
+        <v>4953071.390380184</v>
       </c>
       <c r="AE3" t="n">
-        <v>6536794.261137873</v>
+        <v>6777010.790406349</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.4052902860146e-07</v>
+        <v>1.088856896677973e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.88585069444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>5912931.791302993</v>
+        <v>6130222.392164093</v>
       </c>
     </row>
     <row r="4">
@@ -13160,28 +13160,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3880.233999670722</v>
+        <v>4024.872702858593</v>
       </c>
       <c r="AB4" t="n">
-        <v>5309.107342192301</v>
+        <v>5507.008396903195</v>
       </c>
       <c r="AC4" t="n">
-        <v>4802.413588832222</v>
+        <v>4981.427244637373</v>
       </c>
       <c r="AD4" t="n">
-        <v>3880233.999670723</v>
+        <v>4024872.702858593</v>
       </c>
       <c r="AE4" t="n">
-        <v>5309107.342192302</v>
+        <v>5507008.396903194</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.273006660346876e-07</v>
+        <v>1.236362929404551e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.07942708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>4802413.588832222</v>
+        <v>4981427.244637374</v>
       </c>
     </row>
     <row r="5">
@@ -13266,28 +13266,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3480.327613339127</v>
+        <v>3614.628891203148</v>
       </c>
       <c r="AB5" t="n">
-        <v>4761.937781788772</v>
+        <v>4945.694715116553</v>
       </c>
       <c r="AC5" t="n">
-        <v>4307.465123316324</v>
+        <v>4473.684552831771</v>
       </c>
       <c r="AD5" t="n">
-        <v>3480327.613339127</v>
+        <v>3614628.891203148</v>
       </c>
       <c r="AE5" t="n">
-        <v>4761937.781788772</v>
+        <v>4945694.715116553</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.737921941171327e-07</v>
+        <v>1.315395445854583e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.39539930555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>4307465.123316324</v>
+        <v>4473684.552831771</v>
       </c>
     </row>
     <row r="6">
@@ -13372,28 +13372,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3245.005194402411</v>
+        <v>3379.22113141186</v>
       </c>
       <c r="AB6" t="n">
-        <v>4439.959266507117</v>
+        <v>4623.599432712701</v>
       </c>
       <c r="AC6" t="n">
-        <v>4016.215785633478</v>
+        <v>4182.329592116987</v>
       </c>
       <c r="AD6" t="n">
-        <v>3245005.194402411</v>
+        <v>3379221.13141186</v>
       </c>
       <c r="AE6" t="n">
-        <v>4439959.266507117</v>
+        <v>4623599.432712701</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.028729272699171e-07</v>
+        <v>1.364830764848632e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.43836805555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>4016215.785633478</v>
+        <v>4182329.592116986</v>
       </c>
     </row>
     <row r="7">
@@ -13478,28 +13478,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3075.066161943944</v>
+        <v>3209.367350299414</v>
       </c>
       <c r="AB7" t="n">
-        <v>4207.441185116441</v>
+        <v>4391.197995974674</v>
       </c>
       <c r="AC7" t="n">
-        <v>3805.888903589561</v>
+        <v>3972.108222323781</v>
       </c>
       <c r="AD7" t="n">
-        <v>3075066.161943944</v>
+        <v>3209367.350299414</v>
       </c>
       <c r="AE7" t="n">
-        <v>4207441.185116441</v>
+        <v>4391197.995974674</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.229188695402831e-07</v>
+        <v>1.398907538135791e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.81770833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>3805888.903589561</v>
+        <v>3972108.222323781</v>
       </c>
     </row>
     <row r="8">
@@ -13584,28 +13584,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2951.223280863486</v>
+        <v>3075.187133403658</v>
       </c>
       <c r="AB8" t="n">
-        <v>4037.993891659834</v>
+        <v>4207.606703604506</v>
       </c>
       <c r="AC8" t="n">
-        <v>3652.613421999689</v>
+        <v>3806.038625225432</v>
       </c>
       <c r="AD8" t="n">
-        <v>2951223.280863486</v>
+        <v>3075187.133403658</v>
       </c>
       <c r="AE8" t="n">
-        <v>4037993.891659834</v>
+        <v>4207606.703604506</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.373180675091375e-07</v>
+        <v>1.423385220356146e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.39019097222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>3652613.421999689</v>
+        <v>3806038.625225432</v>
       </c>
     </row>
     <row r="9">
@@ -13690,28 +13690,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2849.027599674873</v>
+        <v>2972.991452215045</v>
       </c>
       <c r="AB9" t="n">
-        <v>3898.165252102311</v>
+        <v>4067.778064046982</v>
       </c>
       <c r="AC9" t="n">
-        <v>3526.129831550813</v>
+        <v>3679.555034776554</v>
       </c>
       <c r="AD9" t="n">
-        <v>2849027.599674873</v>
+        <v>2972991.452215045</v>
       </c>
       <c r="AE9" t="n">
-        <v>3898165.252102311</v>
+        <v>4067778.064046982</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.48329218897085e-07</v>
+        <v>1.442103447936416e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.07552083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>3526129.831550813</v>
+        <v>3679555.034776554</v>
       </c>
     </row>
     <row r="10">
@@ -13796,28 +13796,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2747.473188504499</v>
+        <v>2881.689036005398</v>
       </c>
       <c r="AB10" t="n">
-        <v>3759.214026474577</v>
+        <v>3942.854070210613</v>
       </c>
       <c r="AC10" t="n">
-        <v>3400.439915877726</v>
+        <v>3566.553611580007</v>
       </c>
       <c r="AD10" t="n">
-        <v>2747473.188504499</v>
+        <v>2881689.036005398</v>
       </c>
       <c r="AE10" t="n">
-        <v>3759214.026474577</v>
+        <v>3942854.070210613</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.570816725644279e-07</v>
+        <v>1.456982039089965e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.83029513888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>3400439.915877725</v>
+        <v>3566553.611580007</v>
       </c>
     </row>
     <row r="11">
@@ -13902,28 +13902,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2660.840706496149</v>
+        <v>2784.889810382342</v>
       </c>
       <c r="AB11" t="n">
-        <v>3640.679642635381</v>
+        <v>3810.409099232701</v>
       </c>
       <c r="AC11" t="n">
-        <v>3293.218287268093</v>
+        <v>3446.749002744547</v>
       </c>
       <c r="AD11" t="n">
-        <v>2660840.706496149</v>
+        <v>2784889.810382342</v>
       </c>
       <c r="AE11" t="n">
-        <v>3640679.642635381</v>
+        <v>3810409.099232702</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.639518781312671e-07</v>
+        <v>1.468660933221245e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>23.63932291666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>3293218.287268093</v>
+        <v>3446749.002744548</v>
       </c>
     </row>
     <row r="12">
@@ -14008,28 +14008,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2594.156410092054</v>
+        <v>2718.205513978246</v>
       </c>
       <c r="AB12" t="n">
-        <v>3549.439246391764</v>
+        <v>3719.168702989085</v>
       </c>
       <c r="AC12" t="n">
-        <v>3210.68574638527</v>
+        <v>3364.216461861724</v>
       </c>
       <c r="AD12" t="n">
-        <v>2594156.410092053</v>
+        <v>2718205.513978246</v>
       </c>
       <c r="AE12" t="n">
-        <v>3549439.246391764</v>
+        <v>3719168.702989085</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.690339480026275e-07</v>
+        <v>1.47730011518137e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>23.50260416666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>3210685.74638527</v>
+        <v>3364216.461861724</v>
       </c>
     </row>
     <row r="13">
@@ -14114,28 +14114,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2585.286930322365</v>
+        <v>2709.165442007965</v>
       </c>
       <c r="AB13" t="n">
-        <v>3537.303632877044</v>
+        <v>3706.799677699517</v>
       </c>
       <c r="AC13" t="n">
-        <v>3199.708338791955</v>
+        <v>3353.027918985757</v>
       </c>
       <c r="AD13" t="n">
-        <v>2585286.930322365</v>
+        <v>2709165.442007965</v>
       </c>
       <c r="AE13" t="n">
-        <v>3537303.632877044</v>
+        <v>3706799.677699517</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.699750720528793e-07</v>
+        <v>1.478899963692504e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>23.4765625</v>
       </c>
       <c r="AH13" t="n">
-        <v>3199708.338791955</v>
+        <v>3353027.918985758</v>
       </c>
     </row>
     <row r="14">
@@ -14220,28 +14220,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2597.015229082029</v>
+        <v>2720.89374076763</v>
       </c>
       <c r="AB14" t="n">
-        <v>3553.350808656042</v>
+        <v>3722.846853478515</v>
       </c>
       <c r="AC14" t="n">
-        <v>3214.223994636956</v>
+        <v>3367.54357483076</v>
       </c>
       <c r="AD14" t="n">
-        <v>2597015.229082029</v>
+        <v>2720893.74076763</v>
       </c>
       <c r="AE14" t="n">
-        <v>3553350.808656042</v>
+        <v>3722846.853478515</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.699750720528793e-07</v>
+        <v>1.478899963692504e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>24</v>
+        <v>23.4765625</v>
       </c>
       <c r="AH14" t="n">
-        <v>3214223.994636957</v>
+        <v>3367543.57483076</v>
       </c>
     </row>
   </sheetData>
@@ -14517,28 +14517,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4570.9622023751</v>
+        <v>4743.908836875872</v>
       </c>
       <c r="AB2" t="n">
-        <v>6254.192141910128</v>
+        <v>6490.825357101123</v>
       </c>
       <c r="AC2" t="n">
-        <v>5657.300821699791</v>
+        <v>5871.350094949752</v>
       </c>
       <c r="AD2" t="n">
-        <v>4570962.2023751</v>
+        <v>4743908.836875872</v>
       </c>
       <c r="AE2" t="n">
-        <v>6254192.141910128</v>
+        <v>6490825.357101123</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.215819555606216e-07</v>
+        <v>1.120859356994003e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>5657300.821699791</v>
+        <v>5871350.094949752</v>
       </c>
     </row>
     <row r="3">
@@ -14623,28 +14623,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2890.532325811474</v>
+        <v>3024.875782667038</v>
       </c>
       <c r="AB3" t="n">
-        <v>3954.953849461699</v>
+        <v>4138.768493946515</v>
       </c>
       <c r="AC3" t="n">
-        <v>3577.498604881515</v>
+        <v>3743.770237682168</v>
       </c>
       <c r="AD3" t="n">
-        <v>2890532.325811474</v>
+        <v>3024875.782667038</v>
       </c>
       <c r="AE3" t="n">
-        <v>3954953.849461699</v>
+        <v>4138768.493946515</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.063765909975631e-07</v>
+        <v>1.454087814478707e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.40017361111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>3577498.604881515</v>
+        <v>3743770.237682168</v>
       </c>
     </row>
     <row r="4">
@@ -14729,28 +14729,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2464.507551815321</v>
+        <v>2589.24286230973</v>
       </c>
       <c r="AB4" t="n">
-        <v>3372.047958793576</v>
+        <v>3542.716313545558</v>
       </c>
       <c r="AC4" t="n">
-        <v>3050.224434305224</v>
+        <v>3204.604440814211</v>
       </c>
       <c r="AD4" t="n">
-        <v>2464507.551815321</v>
+        <v>2589242.86230973</v>
       </c>
       <c r="AE4" t="n">
-        <v>3372047.958793575</v>
+        <v>3542716.313545558</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.725564879859994e-07</v>
+        <v>1.573425829555873e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.32118055555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>3050224.434305224</v>
+        <v>3204604.440814211</v>
       </c>
     </row>
     <row r="5">
@@ -14835,28 +14835,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2224.2732123969</v>
+        <v>2339.485717384727</v>
       </c>
       <c r="AB5" t="n">
-        <v>3043.348737210215</v>
+        <v>3200.987569351564</v>
       </c>
       <c r="AC5" t="n">
-        <v>2752.895805097538</v>
+        <v>2895.489808346799</v>
       </c>
       <c r="AD5" t="n">
-        <v>2224273.2123969</v>
+        <v>2339485.717384727</v>
       </c>
       <c r="AE5" t="n">
-        <v>3043348.737210216</v>
+        <v>3200987.569351564</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.07886371455211e-07</v>
+        <v>1.637133969912454e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.33810763888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>2752895.805097538</v>
+        <v>2895489.808346799</v>
       </c>
     </row>
     <row r="6">
@@ -14941,28 +14941,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2083.12465067512</v>
+        <v>2207.859871660981</v>
       </c>
       <c r="AB6" t="n">
-        <v>2850.223048027241</v>
+        <v>3020.891280309843</v>
       </c>
       <c r="AC6" t="n">
-        <v>2578.201760636694</v>
+        <v>2732.581656364498</v>
       </c>
       <c r="AD6" t="n">
-        <v>2083124.65067512</v>
+        <v>2207859.871660981</v>
       </c>
       <c r="AE6" t="n">
-        <v>2850223.048027242</v>
+        <v>3020891.280309843</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.245840685415241e-07</v>
+        <v>1.667243869101154e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.89756944444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>2578201.760636694</v>
+        <v>2732581.656364498</v>
       </c>
     </row>
     <row r="7">
@@ -15047,28 +15047,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2083.153882603084</v>
+        <v>2207.889103588945</v>
       </c>
       <c r="AB7" t="n">
-        <v>2850.263044440704</v>
+        <v>3020.931276723304</v>
       </c>
       <c r="AC7" t="n">
-        <v>2578.23793984859</v>
+        <v>2732.617835576395</v>
       </c>
       <c r="AD7" t="n">
-        <v>2083153.882603084</v>
+        <v>2207889.103588945</v>
       </c>
       <c r="AE7" t="n">
-        <v>2850263.044440703</v>
+        <v>3020931.276723304</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.257040360290207e-07</v>
+        <v>1.669263435510152e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.86935763888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>2578237.93984859</v>
+        <v>2732617.835576395</v>
       </c>
     </row>
   </sheetData>
@@ -15344,28 +15344,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3257.728053860018</v>
+        <v>3405.755581851638</v>
       </c>
       <c r="AB2" t="n">
-        <v>4457.367244109961</v>
+        <v>4659.905038421742</v>
       </c>
       <c r="AC2" t="n">
-        <v>4031.962370286156</v>
+        <v>4215.170241772393</v>
       </c>
       <c r="AD2" t="n">
-        <v>3257728.053860018</v>
+        <v>3405755.581851637</v>
       </c>
       <c r="AE2" t="n">
-        <v>4457367.24410996</v>
+        <v>4659905.038421742</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.280862147040754e-07</v>
+        <v>1.358376149166717e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.61241319444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>4031962.370286156</v>
+        <v>4215170.241772393</v>
       </c>
     </row>
     <row r="3">
@@ -15450,28 +15450,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2217.259371663742</v>
+        <v>2346.612776947266</v>
       </c>
       <c r="AB3" t="n">
-        <v>3033.752090890294</v>
+        <v>3210.739126668707</v>
       </c>
       <c r="AC3" t="n">
-        <v>2744.215049233411</v>
+        <v>2904.310690719991</v>
       </c>
       <c r="AD3" t="n">
-        <v>2217259.371663742</v>
+        <v>2346612.776947266</v>
       </c>
       <c r="AE3" t="n">
-        <v>3033752.090890294</v>
+        <v>3210739.126668707</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.897181726369248e-07</v>
+        <v>1.65992971818785e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.86805555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>2744215.049233411</v>
+        <v>2904310.690719991</v>
       </c>
     </row>
     <row r="4">
@@ -15556,28 +15556,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1907.618398586386</v>
+        <v>2018.553793234081</v>
       </c>
       <c r="AB4" t="n">
-        <v>2610.087651130053</v>
+        <v>2761.874352211229</v>
       </c>
       <c r="AC4" t="n">
-        <v>2360.984548987225</v>
+        <v>2498.284940351188</v>
       </c>
       <c r="AD4" t="n">
-        <v>1907618.398586386</v>
+        <v>2018553.793234081</v>
       </c>
       <c r="AE4" t="n">
-        <v>2610087.651130053</v>
+        <v>2761874.352211229</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.437015496630538e-07</v>
+        <v>1.760645444324173e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.38802083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2360984.548987226</v>
+        <v>2498284.940351188</v>
       </c>
     </row>
     <row r="5">
@@ -15662,28 +15662,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1885.976117055464</v>
+        <v>1996.911511703158</v>
       </c>
       <c r="AB5" t="n">
-        <v>2580.475726749368</v>
+        <v>2732.262427830546</v>
       </c>
       <c r="AC5" t="n">
-        <v>2334.198745108838</v>
+        <v>2471.4991364728</v>
       </c>
       <c r="AD5" t="n">
-        <v>1885976.117055464</v>
+        <v>1996911.511703158</v>
       </c>
       <c r="AE5" t="n">
-        <v>2580475.726749368</v>
+        <v>2732262.427830546</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.484741468461101e-07</v>
+        <v>1.769549585141726e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.26432291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2334198.745108838</v>
+        <v>2471499.1364728</v>
       </c>
     </row>
   </sheetData>
@@ -28668,28 +28668,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2471.24280535944</v>
+        <v>2605.574552856238</v>
       </c>
       <c r="AB2" t="n">
-        <v>3381.263429831056</v>
+        <v>3565.062053054629</v>
       </c>
       <c r="AC2" t="n">
-        <v>3058.560393720882</v>
+        <v>3224.817534306977</v>
       </c>
       <c r="AD2" t="n">
-        <v>2471242.80535944</v>
+        <v>2605574.552856239</v>
       </c>
       <c r="AE2" t="n">
-        <v>3381263.429831056</v>
+        <v>3565062.053054629</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.173530840053708e-07</v>
+        <v>1.571800290943494e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.12977430555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>3058560.393720882</v>
+        <v>3224817.534306977</v>
       </c>
     </row>
     <row r="3">
@@ -28774,28 +28774,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1759.096954017248</v>
+        <v>1875.580307567081</v>
       </c>
       <c r="AB3" t="n">
-        <v>2406.874058366861</v>
+        <v>2566.251721576617</v>
       </c>
       <c r="AC3" t="n">
-        <v>2177.165376305285</v>
+        <v>2321.332259026257</v>
       </c>
       <c r="AD3" t="n">
-        <v>1759096.954017248</v>
+        <v>1875580.307567081</v>
       </c>
       <c r="AE3" t="n">
-        <v>2406874.058366861</v>
+        <v>2566251.721576618</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.549317104943286e-07</v>
+        <v>1.83636909159358e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.93272569444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>2177165.376305284</v>
+        <v>2321332.259026257</v>
       </c>
     </row>
     <row r="4">
@@ -28880,28 +28880,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1733.741180398232</v>
+        <v>1850.224533948066</v>
       </c>
       <c r="AB4" t="n">
-        <v>2372.181170283541</v>
+        <v>2531.558833493297</v>
       </c>
       <c r="AC4" t="n">
-        <v>2145.783528768862</v>
+        <v>2289.950411489834</v>
       </c>
       <c r="AD4" t="n">
-        <v>1733741.180398232</v>
+        <v>1850224.533948066</v>
       </c>
       <c r="AE4" t="n">
-        <v>2372181.170283541</v>
+        <v>2531558.833493297</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.617338435424271e-07</v>
+        <v>1.849449845692707e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.75694444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>2145783.528768862</v>
+        <v>2289950.411489834</v>
       </c>
     </row>
   </sheetData>
@@ -29177,28 +29177,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1463.907607547741</v>
+        <v>1581.451201194605</v>
       </c>
       <c r="AB2" t="n">
-        <v>2002.982971692421</v>
+        <v>2163.811302177428</v>
       </c>
       <c r="AC2" t="n">
-        <v>1811.821088078353</v>
+        <v>1957.30018842585</v>
       </c>
       <c r="AD2" t="n">
-        <v>1463907.60754774</v>
+        <v>1581451.201194605</v>
       </c>
       <c r="AE2" t="n">
-        <v>2002982.971692421</v>
+        <v>2163811.302177428</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.511011114961382e-07</v>
+        <v>1.961740507119284e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.86631944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1811821.088078353</v>
+        <v>1957300.18842585</v>
       </c>
     </row>
     <row r="3">
@@ -29283,28 +29283,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1483.683708219238</v>
+        <v>1601.227301866103</v>
       </c>
       <c r="AB3" t="n">
-        <v>2030.04150509115</v>
+        <v>2190.869835576158</v>
       </c>
       <c r="AC3" t="n">
-        <v>1836.297193026397</v>
+        <v>1981.776293373895</v>
       </c>
       <c r="AD3" t="n">
-        <v>1483683.708219238</v>
+        <v>1601227.301866103</v>
       </c>
       <c r="AE3" t="n">
-        <v>2030041.50509115</v>
+        <v>2190869.835576158</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.514543742588582e-07</v>
+        <v>1.962469146653934e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.85763888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1836297.193026397</v>
+        <v>1981776.293373895</v>
       </c>
     </row>
   </sheetData>
@@ -29580,28 +29580,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6172.845079200783</v>
+        <v>6370.964347258511</v>
       </c>
       <c r="AB2" t="n">
-        <v>8445.958964068035</v>
+        <v>8717.034487029872</v>
       </c>
       <c r="AC2" t="n">
-        <v>7639.888494514919</v>
+        <v>7885.092950022155</v>
       </c>
       <c r="AD2" t="n">
-        <v>6172845.079200784</v>
+        <v>6370964.347258511</v>
       </c>
       <c r="AE2" t="n">
-        <v>8445958.964068035</v>
+        <v>8717034.487029873</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.337433363526213e-07</v>
+        <v>9.377659869841271e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.0390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>7639888.494514919</v>
+        <v>7885092.950022154</v>
       </c>
     </row>
     <row r="3">
@@ -29686,28 +29686,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3552.269839620493</v>
+        <v>3700.837888318732</v>
       </c>
       <c r="AB3" t="n">
-        <v>4860.372309653965</v>
+        <v>5063.649668242632</v>
       </c>
       <c r="AC3" t="n">
-        <v>4396.505197995787</v>
+        <v>4580.38205078231</v>
       </c>
       <c r="AD3" t="n">
-        <v>3552269.839620493</v>
+        <v>3700837.888318732</v>
       </c>
       <c r="AE3" t="n">
-        <v>4860372.309653965</v>
+        <v>5063649.668242632</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.374914844916569e-07</v>
+        <v>1.29574344585316e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.97786458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>4396505.197995787</v>
+        <v>4580382.05078231</v>
       </c>
     </row>
     <row r="4">
@@ -29792,28 +29792,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2989.718128047027</v>
+        <v>3118.465814313443</v>
       </c>
       <c r="AB4" t="n">
-        <v>4090.664239849159</v>
+        <v>4266.822504145925</v>
       </c>
       <c r="AC4" t="n">
-        <v>3700.25698608112</v>
+        <v>3859.602952873074</v>
       </c>
       <c r="AD4" t="n">
-        <v>2989718.128047027</v>
+        <v>3118465.814313443</v>
       </c>
       <c r="AE4" t="n">
-        <v>4090664.239849159</v>
+        <v>4266822.504145926</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.121367702767654e-07</v>
+        <v>1.426892268387103e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.31510416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3700256.98608112</v>
+        <v>3859602.952873074</v>
       </c>
     </row>
     <row r="5">
@@ -29898,28 +29898,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2716.817166606243</v>
+        <v>2845.479512018087</v>
       </c>
       <c r="AB5" t="n">
-        <v>3717.269104865146</v>
+        <v>3893.310602039716</v>
       </c>
       <c r="AC5" t="n">
-        <v>3362.498158716633</v>
+        <v>3521.738502476648</v>
       </c>
       <c r="AD5" t="n">
-        <v>2716817.166606243</v>
+        <v>2845479.512018087</v>
       </c>
       <c r="AE5" t="n">
-        <v>3717269.104865146</v>
+        <v>3893310.602039716</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.513304691454633e-07</v>
+        <v>1.495754051195162e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.10416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>3362498.158716633</v>
+        <v>3521738.502476647</v>
       </c>
     </row>
     <row r="6">
@@ -30004,28 +30004,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2527.410708451541</v>
+        <v>2646.248168747769</v>
       </c>
       <c r="AB6" t="n">
-        <v>3458.114832794673</v>
+        <v>3620.713488710715</v>
       </c>
       <c r="AC6" t="n">
-        <v>3128.077206647269</v>
+        <v>3275.157675051325</v>
       </c>
       <c r="AD6" t="n">
-        <v>2527410.708451541</v>
+        <v>2646248.168747769</v>
       </c>
       <c r="AE6" t="n">
-        <v>3458114.832794673</v>
+        <v>3620713.488710715</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.76048103356627e-07</v>
+        <v>1.539181959448486e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.39453125</v>
       </c>
       <c r="AH6" t="n">
-        <v>3128077.206647269</v>
+        <v>3275157.675051325</v>
       </c>
     </row>
     <row r="7">
@@ -30110,28 +30110,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2368.665129930423</v>
+        <v>2497.327385833716</v>
       </c>
       <c r="AB7" t="n">
-        <v>3240.912128901414</v>
+        <v>3416.953503606435</v>
       </c>
       <c r="AC7" t="n">
-        <v>2931.604023967682</v>
+        <v>3090.844256946471</v>
       </c>
       <c r="AD7" t="n">
-        <v>2368665.129930423</v>
+        <v>2497327.385833716</v>
       </c>
       <c r="AE7" t="n">
-        <v>3240912.128901414</v>
+        <v>3416953.503606435</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.929860837722454e-07</v>
+        <v>1.568941322873075e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.93229166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2931604.023967682</v>
+        <v>3090844.256946471</v>
       </c>
     </row>
     <row r="8">
@@ -30216,28 +30216,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2272.655322649588</v>
+        <v>2391.578034291837</v>
       </c>
       <c r="AB8" t="n">
-        <v>3109.547274926009</v>
+        <v>3272.262575494702</v>
       </c>
       <c r="AC8" t="n">
-        <v>2812.776447283964</v>
+        <v>2959.962427938732</v>
       </c>
       <c r="AD8" t="n">
-        <v>2272655.322649588</v>
+        <v>2391578.034291837</v>
       </c>
       <c r="AE8" t="n">
-        <v>3109547.274926009</v>
+        <v>3272262.575494702</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.027352701742582e-07</v>
+        <v>1.586070258797692e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.671875</v>
       </c>
       <c r="AH8" t="n">
-        <v>2812776.447283964</v>
+        <v>2959962.427938732</v>
       </c>
     </row>
     <row r="9">
@@ -30322,28 +30322,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2269.434101531544</v>
+        <v>2388.356813173793</v>
       </c>
       <c r="AB9" t="n">
-        <v>3105.139858082055</v>
+        <v>3267.855158650747</v>
       </c>
       <c r="AC9" t="n">
-        <v>2808.789668117749</v>
+        <v>2955.975648772517</v>
       </c>
       <c r="AD9" t="n">
-        <v>2269434.101531544</v>
+        <v>2388356.813173793</v>
       </c>
       <c r="AE9" t="n">
-        <v>3105139.858082055</v>
+        <v>3267855.158650747</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.037200364774917e-07</v>
+        <v>1.587800454345634e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.64800347222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>2808789.668117749</v>
+        <v>2955975.648772517</v>
       </c>
     </row>
   </sheetData>
@@ -30619,28 +30619,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9002.341834504494</v>
+        <v>9248.361004841878</v>
       </c>
       <c r="AB2" t="n">
-        <v>12317.40125326168</v>
+        <v>12654.01553571709</v>
       </c>
       <c r="AC2" t="n">
-        <v>11141.84576523115</v>
+        <v>11446.33405301012</v>
       </c>
       <c r="AD2" t="n">
-        <v>9002341.834504494</v>
+        <v>9248361.004841877</v>
       </c>
       <c r="AE2" t="n">
-        <v>12317401.25326168</v>
+        <v>12654015.53571709</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.356639305567169e-07</v>
+        <v>7.449367698199221e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.27213541666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>11141845.76523115</v>
+        <v>11446334.05301012</v>
       </c>
     </row>
     <row r="3">
@@ -30725,28 +30725,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4524.939289874978</v>
+        <v>4688.895206033036</v>
       </c>
       <c r="AB3" t="n">
-        <v>6191.221562639856</v>
+        <v>6415.553280351847</v>
       </c>
       <c r="AC3" t="n">
-        <v>5600.340066135312</v>
+        <v>5803.261879560408</v>
       </c>
       <c r="AD3" t="n">
-        <v>4524939.289874978</v>
+        <v>4688895.206033036</v>
       </c>
       <c r="AE3" t="n">
-        <v>6191221.562639856</v>
+        <v>6415553.280351847</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.583829993906559e-07</v>
+        <v>1.125761557179399e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.27821180555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>5600340.066135311</v>
+        <v>5803261.879560407</v>
       </c>
     </row>
     <row r="4">
@@ -30831,28 +30831,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3694.118789041276</v>
+        <v>3847.816708918366</v>
       </c>
       <c r="AB4" t="n">
-        <v>5054.456300185475</v>
+        <v>5264.752574834993</v>
       </c>
       <c r="AC4" t="n">
-        <v>4572.066084869554</v>
+        <v>4762.291978219188</v>
       </c>
       <c r="AD4" t="n">
-        <v>3694118.789041276</v>
+        <v>3847816.708918366</v>
       </c>
       <c r="AE4" t="n">
-        <v>5054456.300185475</v>
+        <v>5264752.574834992</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.428397404482639e-07</v>
+        <v>1.270173172326367e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.72135416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>4572066.084869554</v>
+        <v>4762291.978219189</v>
       </c>
     </row>
     <row r="5">
@@ -30937,28 +30937,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3324.374103690579</v>
+        <v>3457.641640385961</v>
       </c>
       <c r="AB5" t="n">
-        <v>4548.555309704349</v>
+        <v>4730.897832759757</v>
       </c>
       <c r="AC5" t="n">
-        <v>4114.447574883467</v>
+        <v>4279.387583457797</v>
       </c>
       <c r="AD5" t="n">
-        <v>3324374.103690579</v>
+        <v>3457641.640385961</v>
       </c>
       <c r="AE5" t="n">
-        <v>4548555.309704349</v>
+        <v>4730897.832759757</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.886741291345835e-07</v>
+        <v>1.348544869085901e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.11111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>4114447.574883467</v>
+        <v>4279387.583457797</v>
       </c>
     </row>
     <row r="6">
@@ -31043,28 +31043,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3106.407207049462</v>
+        <v>3239.589402890272</v>
       </c>
       <c r="AB6" t="n">
-        <v>4250.32338569914</v>
+        <v>4432.549141632349</v>
       </c>
       <c r="AC6" t="n">
-        <v>3844.678487134192</v>
+        <v>4009.512872676584</v>
       </c>
       <c r="AD6" t="n">
-        <v>3106407.207049462</v>
+        <v>3239589.402890272</v>
       </c>
       <c r="AE6" t="n">
-        <v>4250323.38569914</v>
+        <v>4432549.141632349</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.163835318186527e-07</v>
+        <v>1.395924859673446e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.22569444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>3844678.487134192</v>
+        <v>4009512.872676584</v>
       </c>
     </row>
     <row r="7">
@@ -31149,28 +31149,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2943.724082231537</v>
+        <v>3076.991529418367</v>
       </c>
       <c r="AB7" t="n">
-        <v>4027.733157250308</v>
+        <v>4210.075557836167</v>
       </c>
       <c r="AC7" t="n">
-        <v>3643.331957681177</v>
+        <v>3808.271855474281</v>
       </c>
       <c r="AD7" t="n">
-        <v>2943724.082231537</v>
+        <v>3076991.529418367</v>
       </c>
       <c r="AE7" t="n">
-        <v>4027733.157250308</v>
+        <v>4210075.557836167</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.356472603969613e-07</v>
+        <v>1.428863688746294e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.64409722222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>3643331.957681177</v>
+        <v>3808271.855474281</v>
       </c>
     </row>
     <row r="8">
@@ -31255,28 +31255,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2826.271665268614</v>
+        <v>2949.28129519158</v>
       </c>
       <c r="AB8" t="n">
-        <v>3867.029578726693</v>
+        <v>4035.336781189173</v>
       </c>
       <c r="AC8" t="n">
-        <v>3497.965703142973</v>
+        <v>3650.209902423069</v>
       </c>
       <c r="AD8" t="n">
-        <v>2826271.665268614</v>
+        <v>2949281.29519158</v>
       </c>
       <c r="AE8" t="n">
-        <v>3867029.578726693</v>
+        <v>4035336.781189173</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.491223808803099e-07</v>
+        <v>1.451904643073113e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.25347222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>3497965.703142973</v>
+        <v>3650209.902423069</v>
       </c>
     </row>
     <row r="9">
@@ -31361,28 +31361,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2704.704167688478</v>
+        <v>2837.886274020737</v>
       </c>
       <c r="AB9" t="n">
-        <v>3700.695565358062</v>
+        <v>3882.921198821723</v>
       </c>
       <c r="AC9" t="n">
-        <v>3347.506374558996</v>
+        <v>3512.340649320161</v>
       </c>
       <c r="AD9" t="n">
-        <v>2704704.167688478</v>
+        <v>2837886.274020738</v>
       </c>
       <c r="AE9" t="n">
-        <v>3700695.565358062</v>
+        <v>3882921.198821723</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.607944922849006e-07</v>
+        <v>1.471862652806908e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.92361111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>3347506.374558996</v>
+        <v>3512340.649320161</v>
       </c>
     </row>
     <row r="10">
@@ -31467,28 +31467,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2607.247433477807</v>
+        <v>2730.342314746793</v>
       </c>
       <c r="AB10" t="n">
-        <v>3567.350962123343</v>
+        <v>3735.774809238473</v>
       </c>
       <c r="AC10" t="n">
-        <v>3226.887993106678</v>
+        <v>3379.237704637486</v>
       </c>
       <c r="AD10" t="n">
-        <v>2607247.433477807</v>
+        <v>2730342.314746793</v>
       </c>
       <c r="AE10" t="n">
-        <v>3567350.962123343</v>
+        <v>3735774.809238472</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.695248520346759e-07</v>
+        <v>1.486790595046819e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.68272569444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>3226887.993106678</v>
+        <v>3379237.704637486</v>
       </c>
     </row>
     <row r="11">
@@ -31573,28 +31573,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2535.041502848874</v>
+        <v>2658.136384117861</v>
       </c>
       <c r="AB11" t="n">
-        <v>3468.555622335994</v>
+        <v>3636.979469451124</v>
       </c>
       <c r="AC11" t="n">
-        <v>3137.521541888507</v>
+        <v>3289.871253419316</v>
       </c>
       <c r="AD11" t="n">
-        <v>2535041.502848874</v>
+        <v>2658136.384117861</v>
       </c>
       <c r="AE11" t="n">
-        <v>3468555.622335995</v>
+        <v>3636979.469451124</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.74649193626935e-07</v>
+        <v>1.49555264810068e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>23.54383680555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>3137521.541888507</v>
+        <v>3289871.253419316</v>
       </c>
     </row>
     <row r="12">
@@ -31679,28 +31679,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2520.092211182207</v>
+        <v>2643.187092451194</v>
       </c>
       <c r="AB12" t="n">
-        <v>3448.101341961457</v>
+        <v>3616.525189076586</v>
       </c>
       <c r="AC12" t="n">
-        <v>3119.019389325153</v>
+        <v>3271.369100855962</v>
       </c>
       <c r="AD12" t="n">
-        <v>2520092.211182207</v>
+        <v>2643187.092451194</v>
       </c>
       <c r="AE12" t="n">
-        <v>3448101.341961457</v>
+        <v>3616525.189076586</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.762624122763501e-07</v>
+        <v>1.498311072210229e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>23.50260416666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>3119019.389325153</v>
+        <v>3271369.100855962</v>
       </c>
     </row>
     <row r="13">
@@ -31785,28 +31785,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2527.340088925504</v>
+        <v>2650.264377993899</v>
       </c>
       <c r="AB13" t="n">
-        <v>3458.018208043635</v>
+        <v>3626.208643383917</v>
       </c>
       <c r="AC13" t="n">
-        <v>3127.989803626857</v>
+        <v>3280.128379875015</v>
       </c>
       <c r="AD13" t="n">
-        <v>2527340.088925504</v>
+        <v>2650264.377993898</v>
       </c>
       <c r="AE13" t="n">
-        <v>3458018.208043635</v>
+        <v>3626208.643383917</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.767368883497075e-07</v>
+        <v>1.49912237341892e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>23.48741319444444</v>
       </c>
       <c r="AH13" t="n">
-        <v>3127989.803626857</v>
+        <v>3280128.379875015</v>
       </c>
     </row>
   </sheetData>
@@ -32082,28 +32082,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1371.208679265861</v>
+        <v>1493.107014066477</v>
       </c>
       <c r="AB2" t="n">
-        <v>1876.148208429066</v>
+        <v>2042.934887878257</v>
       </c>
       <c r="AC2" t="n">
-        <v>1697.091256607144</v>
+        <v>1847.960049456279</v>
       </c>
       <c r="AD2" t="n">
-        <v>1371208.679265861</v>
+        <v>1493107.014066477</v>
       </c>
       <c r="AE2" t="n">
-        <v>1876148.208429066</v>
+        <v>2042934.887878257</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.05853567753574e-07</v>
+        <v>1.941661423208659e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.21006944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1697091.256607144</v>
+        <v>1847960.049456279</v>
       </c>
     </row>
   </sheetData>
@@ -32379,28 +32379,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3669.09462992823</v>
+        <v>3828.439436650009</v>
       </c>
       <c r="AB2" t="n">
-        <v>5020.217141699021</v>
+        <v>5238.239736052505</v>
       </c>
       <c r="AC2" t="n">
-        <v>4541.094663614089</v>
+        <v>4738.3094875591</v>
       </c>
       <c r="AD2" t="n">
-        <v>3669094.62992823</v>
+        <v>3828439.436650009</v>
       </c>
       <c r="AE2" t="n">
-        <v>5020217.141699022</v>
+        <v>5238239.736052505</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.898826332836059e-07</v>
+        <v>1.271062208964956e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.87760416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>4541094.663614089</v>
+        <v>4738309.487559101</v>
       </c>
     </row>
     <row r="3">
@@ -32485,28 +32485,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2451.368708409829</v>
+        <v>2573.200628739841</v>
       </c>
       <c r="AB3" t="n">
-        <v>3354.07081360132</v>
+        <v>3520.766621841839</v>
       </c>
       <c r="AC3" t="n">
-        <v>3033.963002619036</v>
+        <v>3184.749596880109</v>
       </c>
       <c r="AD3" t="n">
-        <v>2451368.708409829</v>
+        <v>2573200.628739841</v>
       </c>
       <c r="AE3" t="n">
-        <v>3354070.81360132</v>
+        <v>3520766.621841839</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.59400832221041e-07</v>
+        <v>1.583388053979523e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.39105902777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>3033963.002619036</v>
+        <v>3184749.59688011</v>
       </c>
     </row>
     <row r="4">
@@ -32591,28 +32591,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2086.881176134445</v>
+        <v>2208.713006955908</v>
       </c>
       <c r="AB4" t="n">
-        <v>2855.362891886895</v>
+        <v>3022.058577658034</v>
       </c>
       <c r="AC4" t="n">
-        <v>2582.851065012198</v>
+        <v>2733.63754849209</v>
       </c>
       <c r="AD4" t="n">
-        <v>2086881.176134445</v>
+        <v>2208713.006955908</v>
       </c>
       <c r="AE4" t="n">
-        <v>2855362.891886896</v>
+        <v>3022058.577658034</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.203312329488613e-07</v>
+        <v>1.695648206657385e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.64409722222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>2582851.065012198</v>
+        <v>2733637.54849209</v>
       </c>
     </row>
     <row r="5">
@@ -32697,28 +32697,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1952.154937385816</v>
+        <v>2064.608613740748</v>
       </c>
       <c r="AB5" t="n">
-        <v>2671.024508328855</v>
+        <v>2824.888589423736</v>
       </c>
       <c r="AC5" t="n">
-        <v>2416.105678060391</v>
+        <v>2555.285187205171</v>
       </c>
       <c r="AD5" t="n">
-        <v>1952154.937385816</v>
+        <v>2064608.613740748</v>
       </c>
       <c r="AE5" t="n">
-        <v>2671024.508328855</v>
+        <v>2824888.589423737</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.406065292459405e-07</v>
+        <v>1.733004072213998e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.11241319444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>2416105.678060391</v>
+        <v>2555285.187205171</v>
       </c>
     </row>
     <row r="6">
@@ -32803,28 +32803,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1960.235808477843</v>
+        <v>2072.689484832775</v>
       </c>
       <c r="AB6" t="n">
-        <v>2682.081112659837</v>
+        <v>2835.945193754719</v>
       </c>
       <c r="AC6" t="n">
-        <v>2426.107055592066</v>
+        <v>2565.286564736847</v>
       </c>
       <c r="AD6" t="n">
-        <v>1960235.808477843</v>
+        <v>2072689.484832775</v>
       </c>
       <c r="AE6" t="n">
-        <v>2682081.112659837</v>
+        <v>2835945.193754719</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.412336002654377e-07</v>
+        <v>1.734159408262141e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.09505208333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2426107.055592066</v>
+        <v>2565286.564736847</v>
       </c>
     </row>
   </sheetData>
@@ -33100,28 +33100,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5060.442907427763</v>
+        <v>5254.462169682096</v>
       </c>
       <c r="AB2" t="n">
-        <v>6923.921236927874</v>
+        <v>7189.386951070016</v>
       </c>
       <c r="AC2" t="n">
-        <v>6263.111911859705</v>
+        <v>6503.241950827581</v>
       </c>
       <c r="AD2" t="n">
-        <v>5060442.907427764</v>
+        <v>5254462.169682096</v>
       </c>
       <c r="AE2" t="n">
-        <v>6923921.236927873</v>
+        <v>7189386.951070016</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.906540580074222e-07</v>
+        <v>1.055160369712692e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.97048611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>6263111.911859705</v>
+        <v>6503241.950827581</v>
       </c>
     </row>
     <row r="3">
@@ -33206,28 +33206,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3104.613602664042</v>
+        <v>3250.149384568435</v>
       </c>
       <c r="AB3" t="n">
-        <v>4247.869297050768</v>
+        <v>4446.997774437924</v>
       </c>
       <c r="AC3" t="n">
-        <v>3842.458613262085</v>
+        <v>4022.582548245977</v>
       </c>
       <c r="AD3" t="n">
-        <v>3104613.602664042</v>
+        <v>3250149.384568435</v>
       </c>
       <c r="AE3" t="n">
-        <v>4247869.297050769</v>
+        <v>4446997.774437924</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.822392924956899e-07</v>
+        <v>1.397413409564986e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.91666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>3842458.613262085</v>
+        <v>4022582.548245977</v>
       </c>
     </row>
     <row r="4">
@@ -33312,28 +33312,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2636.676420013715</v>
+        <v>2762.955355145446</v>
       </c>
       <c r="AB4" t="n">
-        <v>3607.616999817031</v>
+        <v>3780.397409897709</v>
       </c>
       <c r="AC4" t="n">
-        <v>3263.311096676618</v>
+        <v>3419.601586918018</v>
       </c>
       <c r="AD4" t="n">
-        <v>2636676.420013715</v>
+        <v>2762955.355145446</v>
       </c>
       <c r="AE4" t="n">
-        <v>3607616.999817031</v>
+        <v>3780397.409897709</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.516688154982662e-07</v>
+        <v>1.521444185561879e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.64019097222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>3263311.096676618</v>
+        <v>3419601.586918018</v>
       </c>
     </row>
     <row r="5">
@@ -33418,28 +33418,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2391.444147564682</v>
+        <v>2517.637741841841</v>
       </c>
       <c r="AB5" t="n">
-        <v>3272.079385767942</v>
+        <v>3444.743028726423</v>
       </c>
       <c r="AC5" t="n">
-        <v>2959.796721582387</v>
+        <v>3115.981588791848</v>
       </c>
       <c r="AD5" t="n">
-        <v>2391444.147564682</v>
+        <v>2517637.741841841</v>
       </c>
       <c r="AE5" t="n">
-        <v>3272079.385767942</v>
+        <v>3444743.028726423</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.875910469648164e-07</v>
+        <v>1.585616630534184e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.60069444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>2959796.721582387</v>
+        <v>3115981.588791849</v>
       </c>
     </row>
     <row r="6">
@@ -33524,28 +33524,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2211.083727185464</v>
+        <v>2337.191980608052</v>
       </c>
       <c r="AB6" t="n">
-        <v>3025.302301664908</v>
+        <v>3197.849177501191</v>
       </c>
       <c r="AC6" t="n">
-        <v>2736.571696032343</v>
+        <v>2892.650940209866</v>
       </c>
       <c r="AD6" t="n">
-        <v>2211083.727185464</v>
+        <v>2337191.980608052</v>
       </c>
       <c r="AE6" t="n">
-        <v>3025302.301664907</v>
+        <v>3197849.177501191</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.103317313105875e-07</v>
+        <v>1.626241203541861e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.98871527777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>2736571.696032343</v>
+        <v>2892650.940209866</v>
       </c>
     </row>
     <row r="7">
@@ -33630,28 +33630,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2143.181026060553</v>
+        <v>2269.289279483143</v>
       </c>
       <c r="AB7" t="n">
-        <v>2932.39483032988</v>
+        <v>3104.941706166335</v>
       </c>
       <c r="AC7" t="n">
-        <v>2652.531183365189</v>
+        <v>2808.610427542757</v>
       </c>
       <c r="AD7" t="n">
-        <v>2143181.026060553</v>
+        <v>2269289.279483143</v>
       </c>
       <c r="AE7" t="n">
-        <v>2932394.83032988</v>
+        <v>3104941.706166335</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.179790410905815e-07</v>
+        <v>1.639902564376302e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.78689236111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>2652531.183365189</v>
+        <v>2808610.427542757</v>
       </c>
     </row>
     <row r="8">
@@ -33736,28 +33736,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2146.382153783998</v>
+        <v>2272.490407206588</v>
       </c>
       <c r="AB8" t="n">
-        <v>2936.774754504886</v>
+        <v>3109.321630341341</v>
       </c>
       <c r="AC8" t="n">
-        <v>2656.493093724194</v>
+        <v>2812.572337901762</v>
       </c>
       <c r="AD8" t="n">
-        <v>2146382.153783998</v>
+        <v>2272490.407206588</v>
       </c>
       <c r="AE8" t="n">
-        <v>2936774.754504886</v>
+        <v>3109321.630341341</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.183815310790021e-07</v>
+        <v>1.640621583367588e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.77604166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2656493.093724194</v>
+        <v>2812572.337901762</v>
       </c>
     </row>
   </sheetData>
